--- a/biology/Botanique/Koelreuteria_paniculata/Koelreuteria_paniculata.xlsx
+++ b/biology/Botanique/Koelreuteria_paniculata/Koelreuteria_paniculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Koelreuteria paniculata, le savonnier, est un arbre de la famille des Sapindacées originaire de Chine et de Corée.
 Il est devenu un arbre ornemental des régions tempérées pour son aspect esthétique.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Savonnier de Chine, bois de Panama, arbre aux lanternes, arbre à pluie d'or, mimosa d'été, lampions de Chine.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre à croissance rapide qui peut atteindre une hauteur de 10 à 12 m à maturité. Son port est largement étalé, son écorce brune à brun pâle se fissure avec le temps.
 Ses feuilles caduques sont pennées ou en partie bipennées, et font une quarantaine de centimètres de long. Elles sont constituées de folioles lobées ou dentelées, ou divisées en foliolules d'environ 10 cm de long. À l'automne, son feuillage vert devient doré.
@@ -580,7 +596,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le savonnier est un arbre de culture facile qui a besoin d'une exposition en plein soleil. Il est rustique (Zone USDA 6), ne craint pas le gel et n'est pas la cible de ravageurs ou de maladies.
 Il supporte aussi bien les sols sableux qu'argileux même s'ils sont pauvres, acides ou alcalins. Il supporte également le vent (malgré son enracinement superficiel) et la pollution atmosphérique.
@@ -612,7 +630,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Savonnier est utilisé comme arbre d'alignement pour sa facilité de culture.
 La saponine présente dans l'écorce et le fruit est utilisée en Asie pour faire du savon naturel d'où son nom de « Savonnier ».
